--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200410.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200410.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C547827-9473-41DF-95C7-EA49ECBF5447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922E169-5603-4F8F-9005-56BBBB813568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10886,8 +10886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11088,10 +11088,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D2" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
@@ -11151,10 +11151,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D3" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>41</v>
@@ -11214,10 +11214,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D4" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>41</v>
@@ -11267,10 +11267,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D5" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>41</v>
@@ -11321,10 +11321,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D6" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
@@ -11377,10 +11377,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D7" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>41</v>
@@ -11430,10 +11430,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D8" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>41</v>
@@ -11483,10 +11483,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D9" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>41</v>
@@ -11536,10 +11536,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D10" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>41</v>
@@ -11586,10 +11586,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D11" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>41</v>
@@ -11637,10 +11637,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D12" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>41</v>
@@ -11691,10 +11691,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D13" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>41</v>
@@ -11741,10 +11741,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D14" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
@@ -11791,10 +11791,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D15" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>41</v>
@@ -11841,10 +11841,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D16" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>41</v>
@@ -11891,10 +11891,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D17" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>41</v>
@@ -11944,10 +11944,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D18" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -11994,10 +11994,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D19" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -12044,10 +12044,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D20" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>41</v>
@@ -12095,10 +12095,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D21" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>41</v>
@@ -12145,10 +12145,10 @@
         <v>3302</v>
       </c>
       <c r="C22" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D22" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>41</v>
@@ -12198,10 +12198,10 @@
         <v>3302</v>
       </c>
       <c r="C23" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D23" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>41</v>
@@ -12248,10 +12248,10 @@
         <v>3302</v>
       </c>
       <c r="C24" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D24" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>41</v>
@@ -12301,10 +12301,10 @@
         <v>3302</v>
       </c>
       <c r="C25" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D25" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
@@ -12351,10 +12351,10 @@
         <v>3302</v>
       </c>
       <c r="C26" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D26" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>41</v>
@@ -12401,10 +12401,10 @@
         <v>3302</v>
       </c>
       <c r="C27" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D27" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
@@ -12451,10 +12451,10 @@
         <v>3302</v>
       </c>
       <c r="C28" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D28" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
@@ -12501,10 +12501,10 @@
         <v>3302</v>
       </c>
       <c r="C29" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D29" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>41</v>
@@ -12551,10 +12551,10 @@
         <v>3302</v>
       </c>
       <c r="C30" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D30" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>41</v>
@@ -12601,10 +12601,10 @@
         <v>3302</v>
       </c>
       <c r="C31" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D31" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>41</v>
@@ -12651,10 +12651,10 @@
         <v>3302</v>
       </c>
       <c r="C32" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D32" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>41</v>
@@ -12701,10 +12701,10 @@
         <v>3302</v>
       </c>
       <c r="C33" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D33" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>41</v>
@@ -12751,10 +12751,10 @@
         <v>3302</v>
       </c>
       <c r="C34" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D34" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -12801,10 +12801,10 @@
         <v>3302</v>
       </c>
       <c r="C35" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D35" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>41</v>
@@ -12851,10 +12851,10 @@
         <v>3302</v>
       </c>
       <c r="C36" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D36" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>41</v>
@@ -12901,10 +12901,10 @@
         <v>3302</v>
       </c>
       <c r="C37" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D37" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>41</v>
@@ -12951,10 +12951,10 @@
         <v>3302</v>
       </c>
       <c r="C38" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D38" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -13001,10 +13001,10 @@
         <v>3302</v>
       </c>
       <c r="C39" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D39" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>41</v>
@@ -13051,10 +13051,10 @@
         <v>3302</v>
       </c>
       <c r="C40" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D40" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>41</v>
@@ -13101,10 +13101,10 @@
         <v>3302</v>
       </c>
       <c r="C41" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D41" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>41</v>
@@ -13151,10 +13151,10 @@
         <v>3302</v>
       </c>
       <c r="C42" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D42" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>41</v>
@@ -13201,10 +13201,10 @@
         <v>3302</v>
       </c>
       <c r="C43" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D43" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>41</v>
@@ -13251,10 +13251,10 @@
         <v>3302</v>
       </c>
       <c r="C44" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D44" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>41</v>
@@ -13301,10 +13301,10 @@
         <v>3302</v>
       </c>
       <c r="C45" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D45" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>41</v>
@@ -13351,10 +13351,10 @@
         <v>3302</v>
       </c>
       <c r="C46" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D46" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>41</v>
@@ -13401,10 +13401,10 @@
         <v>3302</v>
       </c>
       <c r="C47" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D47" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>41</v>
@@ -13451,10 +13451,10 @@
         <v>3302</v>
       </c>
       <c r="C48" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D48" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>41</v>
@@ -13501,10 +13501,10 @@
         <v>3302</v>
       </c>
       <c r="C49" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D49" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>41</v>
@@ -13551,10 +13551,10 @@
         <v>3302</v>
       </c>
       <c r="C50" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D50" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>41</v>
@@ -13601,10 +13601,10 @@
         <v>3302</v>
       </c>
       <c r="C51" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D51" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>41</v>
@@ -13651,10 +13651,10 @@
         <v>40</v>
       </c>
       <c r="C52" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D52" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>41</v>
@@ -13704,10 +13704,10 @@
         <v>40</v>
       </c>
       <c r="C53" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D53" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>41</v>
@@ -13754,10 +13754,10 @@
         <v>67</v>
       </c>
       <c r="C54" s="17">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D54" s="17">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>41</v>
